--- a/tubitak-ths-soru-setleri.xlsx
+++ b/tubitak-ths-soru-setleri.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Genel-Mühendislik-Sistem" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="260">
   <si>
     <t>TRL Seviyesi</t>
   </si>
@@ -2175,12 +2175,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2631,127 +2639,139 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2759,11 +2779,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2771,11 +2787,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2783,138 +2795,138 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3432,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3450,17 +3462,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -3503,31 +3515,31 @@
       <c r="AR1" s="3"/>
     </row>
     <row r="2" spans="1:50" ht="83.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="69" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="80" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -3546,7 +3558,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:50" s="9" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -3648,7 +3660,7 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
+      <c r="A6" s="68">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3661,7 +3673,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="106" t="s">
+      <c r="J6" s="63" t="s">
         <v>259</v>
       </c>
       <c r="K6" s="11">
@@ -3673,7 +3685,7 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="11" t="s">
         <v>148</v>
       </c>
@@ -3683,7 +3695,7 @@
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="63" t="s">
         <v>259</v>
       </c>
       <c r="J7" s="59"/>
@@ -3696,7 +3708,7 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="11" t="s">
         <v>149</v>
       </c>
@@ -3706,7 +3718,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="63" t="s">
         <v>259</v>
       </c>
       <c r="J8" s="59"/>
@@ -3719,7 +3731,7 @@
       </c>
     </row>
     <row r="9" spans="1:50" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="11" t="s">
         <v>150</v>
       </c>
@@ -3729,7 +3741,7 @@
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="106" t="s">
+      <c r="I9" s="63" t="s">
         <v>259</v>
       </c>
       <c r="J9" s="59"/>
@@ -3742,7 +3754,7 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="11" t="s">
         <v>151</v>
       </c>
@@ -3751,7 +3763,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="63" t="s">
         <v>259</v>
       </c>
       <c r="I10" s="56"/>
@@ -3782,7 +3794,7 @@
       </c>
     </row>
     <row r="12" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="A12" s="68">
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3795,7 +3807,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
-      <c r="J12" s="106" t="s">
+      <c r="J12" s="63" t="s">
         <v>259</v>
       </c>
       <c r="K12" s="10">
@@ -3804,7 +3816,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="11" t="s">
         <v>154</v>
       </c>
@@ -3815,7 +3827,7 @@
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="63" t="s">
         <v>259</v>
       </c>
       <c r="K13" s="10">
@@ -3824,7 +3836,7 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="11" t="s">
         <v>155</v>
       </c>
@@ -3835,7 +3847,7 @@
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="63" t="s">
         <v>259</v>
       </c>
       <c r="K14" s="10">
@@ -3844,7 +3856,7 @@
       </c>
     </row>
     <row r="15" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="11" t="s">
         <v>156</v>
       </c>
@@ -3853,7 +3865,7 @@
       <c r="E15" s="54"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
-      <c r="H15" s="106" t="s">
+      <c r="H15" s="63" t="s">
         <v>259</v>
       </c>
       <c r="I15" s="56"/>
@@ -3864,7 +3876,7 @@
       </c>
     </row>
     <row r="16" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="11" t="s">
         <v>157</v>
       </c>
@@ -3904,7 +3916,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="68">
         <v>3</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3917,7 +3929,7 @@
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
       <c r="I18" s="62"/>
-      <c r="J18" s="106" t="s">
+      <c r="J18" s="63" t="s">
         <v>259</v>
       </c>
       <c r="K18" s="10">
@@ -3926,7 +3938,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="11" t="s">
         <v>160</v>
       </c>
@@ -3935,7 +3947,7 @@
       <c r="E19" s="54"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="106" t="s">
+      <c r="H19" s="63" t="s">
         <v>259</v>
       </c>
       <c r="I19" s="56"/>
@@ -3946,7 +3958,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="11" t="s">
         <v>161</v>
       </c>
@@ -3957,7 +3969,7 @@
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="62"/>
-      <c r="J20" s="106" t="s">
+      <c r="J20" s="63" t="s">
         <v>259</v>
       </c>
       <c r="K20" s="10">
@@ -3966,7 +3978,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="11" t="s">
         <v>162</v>
       </c>
@@ -3986,7 +3998,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="11" t="s">
         <v>163</v>
       </c>
@@ -4006,7 +4018,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="11" t="s">
         <v>164</v>
       </c>
@@ -4026,7 +4038,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="11" t="s">
         <v>165</v>
       </c>
@@ -4037,7 +4049,7 @@
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
       <c r="I24" s="62"/>
-      <c r="J24" s="106" t="s">
+      <c r="J24" s="63" t="s">
         <v>259</v>
       </c>
       <c r="K24" s="10">
@@ -4062,11 +4074,11 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10">
         <f>(SUM(K26:K31))/6</f>
-        <v>0</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="68">
         <v>4</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4079,14 +4091,16 @@
       <c r="G26" s="56"/>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="10" t="b">
+      <c r="J26" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" s="10">
         <f>IF(E26="X",0,IF(F26="X",20,IF(G26="X",40,IF(H26="X",60,IF(I26="X",80,IF(J26="X",100))))))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="11" t="s">
         <v>168</v>
       </c>
@@ -4097,14 +4111,16 @@
       <c r="G27" s="56"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="10" t="b">
+      <c r="J27" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" s="10">
         <f>IF(E27="X",0,IF(F27="X",20,IF(G27="X",40,IF(H27="X",60,IF(I27="X",80,IF(J27="X",100))))))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="11" t="s">
         <v>169</v>
       </c>
@@ -4114,33 +4130,37 @@
       <c r="F28" s="56"/>
       <c r="G28" s="56"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+      <c r="I28" s="107" t="s">
+        <v>259</v>
+      </c>
       <c r="J28" s="59"/>
-      <c r="K28" s="10" t="b">
+      <c r="K28" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="E29" s="54" t="s">
+        <v>259</v>
+      </c>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="59"/>
-      <c r="K29" s="10" t="b">
+      <c r="K29" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="11" t="s">
         <v>171</v>
       </c>
@@ -4151,26 +4171,30 @@
       <c r="G30" s="56"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="10" t="b">
+      <c r="J30" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="39" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="E31" s="54" t="s">
+        <v>259</v>
+      </c>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
       <c r="H31" s="56"/>
       <c r="I31" s="62"/>
       <c r="J31" s="59"/>
-      <c r="K31" s="10" t="b">
+      <c r="K31" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4196,7 +4220,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
+      <c r="A33" s="68">
         <v>5</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -4216,7 +4240,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="11" t="s">
         <v>175</v>
       </c>
@@ -4234,7 +4258,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="39" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="11" t="s">
         <v>176</v>
       </c>
@@ -4252,7 +4276,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="11" t="s">
         <v>177</v>
       </c>
@@ -4270,7 +4294,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="11" t="s">
         <v>178</v>
       </c>
@@ -4308,7 +4332,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+      <c r="A39" s="68">
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -4328,7 +4352,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="11" t="s">
         <v>181</v>
       </c>
@@ -4346,7 +4370,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="11" t="s">
         <v>182</v>
       </c>
@@ -4364,7 +4388,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="11" t="s">
         <v>183</v>
       </c>
@@ -4382,7 +4406,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="11" t="s">
         <v>184</v>
       </c>
@@ -4420,7 +4444,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="68">
         <v>7</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -4440,7 +4464,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="11" t="s">
         <v>187</v>
       </c>
@@ -4458,7 +4482,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="11" t="s">
         <v>188</v>
       </c>
@@ -4476,7 +4500,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="11" t="s">
         <v>189</v>
       </c>
@@ -4514,7 +4538,7 @@
       </c>
     </row>
     <row r="50" spans="1:50" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71">
+      <c r="A50" s="68">
         <v>8</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -4534,7 +4558,7 @@
       </c>
     </row>
     <row r="51" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="11" t="s">
         <v>192</v>
       </c>
@@ -4552,7 +4576,7 @@
       </c>
     </row>
     <row r="52" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="11" t="s">
         <v>193</v>
       </c>
@@ -4629,7 +4653,7 @@
       <c r="AX53" s="39"/>
     </row>
     <row r="54" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71">
+      <c r="A54" s="68">
         <v>9</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -4649,7 +4673,7 @@
       </c>
     </row>
     <row r="55" spans="1:50" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="41" t="s">
         <v>197</v>
       </c>
@@ -4667,7 +4691,7 @@
       </c>
     </row>
     <row r="56" spans="1:50" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="11" t="s">
         <v>198</v>
       </c>
@@ -4685,7 +4709,7 @@
       </c>
     </row>
     <row r="57" spans="1:50" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="11" t="s">
         <v>199</v>
       </c>
@@ -4703,8 +4727,8 @@
       </c>
     </row>
     <row r="58" spans="1:50" s="39" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
@@ -4713,32 +4737,32 @@
       <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:50" s="39" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="65"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="76"/>
     </row>
     <row r="60" spans="1:50" s="39" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="68"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="79"/>
     </row>
     <row r="61" spans="1:50" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
@@ -6870,6 +6894,12 @@
   </sheetData>
   <sheetProtection password="D374" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A59:K60"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C3:D3"/>
@@ -6881,12 +6911,6 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A59:K60"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6918,17 +6942,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="331.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="75" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -6970,31 +6994,31 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="69" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="80" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="49">
         <v>0</v>
       </c>
@@ -7013,7 +7037,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:43" s="9" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -7102,7 +7126,7 @@
       </c>
     </row>
     <row r="6" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
+      <c r="A6" s="84">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7122,7 +7146,7 @@
       </c>
     </row>
     <row r="7" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="11" t="s">
         <v>204</v>
       </c>
@@ -7140,7 +7164,7 @@
       </c>
     </row>
     <row r="8" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="11" t="s">
         <v>205</v>
       </c>
@@ -7158,7 +7182,7 @@
       </c>
     </row>
     <row r="9" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="11" t="s">
         <v>206</v>
       </c>
@@ -7176,7 +7200,7 @@
       </c>
     </row>
     <row r="10" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="11" t="s">
         <v>207</v>
       </c>
@@ -7214,7 +7238,7 @@
       </c>
     </row>
     <row r="12" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82">
+      <c r="A12" s="84">
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -7234,7 +7258,7 @@
       </c>
     </row>
     <row r="13" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="11" t="s">
         <v>210</v>
       </c>
@@ -7252,7 +7276,7 @@
       </c>
     </row>
     <row r="14" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="11" t="s">
         <v>211</v>
       </c>
@@ -7270,7 +7294,7 @@
       </c>
     </row>
     <row r="15" spans="1:43" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="11" t="s">
         <v>212</v>
       </c>
@@ -7308,7 +7332,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82">
+      <c r="A17" s="84">
         <v>3</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -7328,7 +7352,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="11" t="s">
         <v>215</v>
       </c>
@@ -7346,7 +7370,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="11" t="s">
         <v>216</v>
       </c>
@@ -7364,7 +7388,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="11" t="s">
         <v>217</v>
       </c>
@@ -7402,7 +7426,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82">
+      <c r="A22" s="84">
         <v>4</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -7422,7 +7446,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="11" t="s">
         <v>220</v>
       </c>
@@ -7440,7 +7464,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="11" t="s">
         <v>221</v>
       </c>
@@ -7458,7 +7482,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="11" t="s">
         <v>222</v>
       </c>
@@ -7476,7 +7500,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="11" t="s">
         <v>223</v>
       </c>
@@ -7494,7 +7518,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="11" t="s">
         <v>224</v>
       </c>
@@ -7512,7 +7536,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="11" t="s">
         <v>225</v>
       </c>
@@ -7550,7 +7574,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82">
+      <c r="A30" s="84">
         <v>5</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -7570,7 +7594,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="11" t="s">
         <v>228</v>
       </c>
@@ -7588,7 +7612,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="11" t="s">
         <v>229</v>
       </c>
@@ -7606,7 +7630,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="11" t="s">
         <v>230</v>
       </c>
@@ -7624,7 +7648,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="11" t="s">
         <v>231</v>
       </c>
@@ -7642,7 +7666,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="11" t="s">
         <v>232</v>
       </c>
@@ -7660,7 +7684,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="11" t="s">
         <v>233</v>
       </c>
@@ -7678,7 +7702,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="11" t="s">
         <v>234</v>
       </c>
@@ -7716,7 +7740,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82">
+      <c r="A39" s="84">
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -7736,7 +7760,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="11" t="s">
         <v>237</v>
       </c>
@@ -7754,7 +7778,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="11" t="s">
         <v>238</v>
       </c>
@@ -7772,7 +7796,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="11" t="s">
         <v>239</v>
       </c>
@@ -7790,7 +7814,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="11" t="s">
         <v>240</v>
       </c>
@@ -7828,7 +7852,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="82">
+      <c r="A45" s="84">
         <v>7</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -7848,7 +7872,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
@@ -7866,7 +7890,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="11" t="s">
         <v>244</v>
       </c>
@@ -7884,7 +7908,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="11" t="s">
         <v>245</v>
       </c>
@@ -7902,7 +7926,7 @@
       </c>
     </row>
     <row r="49" spans="1:42" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
+      <c r="A49" s="86"/>
       <c r="B49" s="11" t="s">
         <v>246</v>
       </c>
@@ -7940,7 +7964,7 @@
       </c>
     </row>
     <row r="51" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="82">
+      <c r="A51" s="84">
         <v>8</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -7960,7 +7984,7 @@
       </c>
     </row>
     <row r="52" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="11" t="s">
         <v>249</v>
       </c>
@@ -7978,7 +8002,7 @@
       </c>
     </row>
     <row r="53" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="11" t="s">
         <v>250</v>
       </c>
@@ -7996,7 +8020,7 @@
       </c>
     </row>
     <row r="54" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="11" t="s">
         <v>251</v>
       </c>
@@ -8014,7 +8038,7 @@
       </c>
     </row>
     <row r="55" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="11" t="s">
         <v>252</v>
       </c>
@@ -8083,7 +8107,7 @@
       <c r="AP56" s="46"/>
     </row>
     <row r="57" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="82">
+      <c r="A57" s="84">
         <v>9</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -8103,7 +8127,7 @@
       </c>
     </row>
     <row r="58" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="11" t="s">
         <v>255</v>
       </c>
@@ -8121,7 +8145,7 @@
       </c>
     </row>
     <row r="59" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="11" t="s">
         <v>256</v>
       </c>
@@ -8139,7 +8163,7 @@
       </c>
     </row>
     <row r="60" spans="1:42" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="11" t="s">
         <v>257</v>
       </c>
@@ -8157,62 +8181,62 @@
       </c>
     </row>
     <row r="61" spans="1:42" s="46" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="87"/>
     </row>
     <row r="62" spans="1:42" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
     </row>
     <row r="63" spans="1:42" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
     </row>
     <row r="64" spans="1:42" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
     </row>
     <row r="65" spans="1:11" s="46" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
     </row>
     <row r="66" spans="1:11" s="46" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
@@ -10344,13 +10368,6 @@
   </sheetData>
   <sheetProtection password="D374" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A62:K65"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A57:A60"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A1:B1"/>
@@ -10361,6 +10378,13 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A62:K65"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10395,17 +10419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -10449,31 +10473,31 @@
       <c r="AS1" s="3"/>
     </row>
     <row r="2" spans="1:45" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="69" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="80" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -10492,7 +10516,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:45" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -10583,7 +10607,7 @@
       </c>
     </row>
     <row r="6" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
@@ -10601,7 +10625,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -10639,7 +10663,7 @@
       </c>
     </row>
     <row r="9" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="84">
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -10659,7 +10683,7 @@
       </c>
     </row>
     <row r="10" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
@@ -10677,7 +10701,7 @@
       </c>
     </row>
     <row r="11" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -10715,7 +10739,7 @@
       </c>
     </row>
     <row r="13" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+      <c r="A13" s="84">
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -10735,7 +10759,7 @@
       </c>
     </row>
     <row r="14" spans="1:45" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
@@ -10753,7 +10777,7 @@
       </c>
     </row>
     <row r="15" spans="1:45" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
@@ -10771,7 +10795,7 @@
       </c>
     </row>
     <row r="16" spans="1:45" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
@@ -10789,7 +10813,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
@@ -10827,7 +10851,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82">
+      <c r="A19" s="84">
         <v>4</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -10847,7 +10871,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
@@ -10865,7 +10889,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
@@ -10883,7 +10907,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="11" t="s">
         <v>52</v>
       </c>
@@ -10921,7 +10945,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82">
+      <c r="A24" s="84">
         <v>5</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -10941,7 +10965,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
@@ -10959,7 +10983,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="11" t="s">
         <v>54</v>
       </c>
@@ -10997,7 +11021,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82">
+      <c r="A28" s="84">
         <v>6</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -11017,7 +11041,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="11" t="s">
         <v>44</v>
       </c>
@@ -11035,7 +11059,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="11" t="s">
         <v>46</v>
       </c>
@@ -11073,7 +11097,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71">
+      <c r="A32" s="68">
         <v>7</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -11093,7 +11117,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -11111,7 +11135,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="11" t="s">
         <v>49</v>
       </c>
@@ -11142,32 +11166,32 @@
       <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="65"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="76"/>
     </row>
     <row r="37" spans="1:11" s="19" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="68"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
     </row>
     <row r="38" spans="1:11" s="19" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
@@ -13319,6 +13343,12 @@
   </sheetData>
   <sheetProtection password="D374" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A36:K37"/>
@@ -13327,12 +13357,6 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -13366,17 +13390,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -13391,31 +13415,31 @@
       <c r="AY1" s="1"/>
     </row>
     <row r="2" spans="1:51" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="69" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="80" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -13434,7 +13458,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:51" s="9" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -13532,7 +13556,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" s="20" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
+      <c r="A6" s="68">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -13584,7 +13608,7 @@
       <c r="AQ6" s="19"/>
     </row>
     <row r="7" spans="1:51" s="20" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -13654,7 +13678,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="84">
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -13674,7 +13698,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="11" t="s">
         <v>55</v>
       </c>
@@ -13692,7 +13716,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="11" t="s">
         <v>56</v>
       </c>
@@ -13710,7 +13734,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -13728,7 +13752,7 @@
       </c>
     </row>
     <row r="13" spans="1:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="11" t="s">
         <v>57</v>
       </c>
@@ -13766,7 +13790,7 @@
       </c>
     </row>
     <row r="15" spans="1:51" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="68">
         <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -13786,7 +13810,7 @@
       </c>
     </row>
     <row r="16" spans="1:51" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="11" t="s">
         <v>59</v>
       </c>
@@ -13804,7 +13828,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
@@ -13822,7 +13846,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="11" t="s">
         <v>60</v>
       </c>
@@ -13840,7 +13864,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="11" t="s">
         <v>61</v>
       </c>
@@ -13858,7 +13882,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
@@ -13896,7 +13920,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82">
+      <c r="A22" s="84">
         <v>4</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -13916,7 +13940,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="11" t="s">
         <v>66</v>
       </c>
@@ -13934,7 +13958,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="11" t="s">
         <v>64</v>
       </c>
@@ -13952,7 +13976,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="11" t="s">
         <v>67</v>
       </c>
@@ -13970,7 +13994,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
@@ -14008,7 +14032,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="A28" s="68">
         <v>5</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -14028,7 +14052,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="11" t="s">
         <v>70</v>
       </c>
@@ -14046,7 +14070,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="11" t="s">
         <v>72</v>
       </c>
@@ -14064,7 +14088,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="11" t="s">
         <v>73</v>
       </c>
@@ -14082,7 +14106,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="11" t="s">
         <v>71</v>
       </c>
@@ -14100,7 +14124,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="11" t="s">
         <v>22</v>
       </c>
@@ -14118,7 +14142,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="11" t="s">
         <v>75</v>
       </c>
@@ -14156,7 +14180,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71">
+      <c r="A36" s="68">
         <v>6</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -14176,7 +14200,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="11" t="s">
         <v>77</v>
       </c>
@@ -14194,7 +14218,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="11" t="s">
         <v>81</v>
       </c>
@@ -14212,7 +14236,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="11" t="s">
         <v>123</v>
       </c>
@@ -14230,7 +14254,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="11" t="s">
         <v>82</v>
       </c>
@@ -14268,7 +14292,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71">
+      <c r="A42" s="68">
         <v>7</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -14288,7 +14312,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="11" t="s">
         <v>128</v>
       </c>
@@ -14306,7 +14330,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="11" t="s">
         <v>83</v>
       </c>
@@ -14324,7 +14348,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="11" t="s">
         <v>122</v>
       </c>
@@ -14342,7 +14366,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="11" t="s">
         <v>84</v>
       </c>
@@ -14380,7 +14404,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
+      <c r="A48" s="68">
         <v>8</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -14400,7 +14424,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="23" t="s">
         <v>129</v>
       </c>
@@ -14418,7 +14442,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="24" t="s">
         <v>88</v>
       </c>
@@ -14436,7 +14460,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="24" t="s">
         <v>121</v>
       </c>
@@ -14454,7 +14478,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="11" t="s">
         <v>89</v>
       </c>
@@ -14472,7 +14496,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="11" t="s">
         <v>126</v>
       </c>
@@ -14490,7 +14514,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="11" t="s">
         <v>124</v>
       </c>
@@ -14516,58 +14540,58 @@
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
+      <c r="A56" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="65"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="76"/>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="93"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="94"/>
     </row>
     <row r="58" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="93"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="94"/>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="68"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="79"/>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
@@ -16748,17 +16772,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="94" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="38" t="s">
         <v>139</v>
       </c>
@@ -16768,31 +16792,31 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="77.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="105" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="103" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -16811,7 +16835,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:47" s="9" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -16945,7 +16969,7 @@
       </c>
     </row>
     <row r="8" spans="1:47" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="A8" s="68">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -16965,7 +16989,7 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="11" t="s">
         <v>95</v>
       </c>
@@ -16983,7 +17007,7 @@
       </c>
     </row>
     <row r="10" spans="1:47" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="11" t="s">
         <v>93</v>
       </c>
@@ -17001,7 +17025,7 @@
       </c>
     </row>
     <row r="11" spans="1:47" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="11" t="s">
         <v>98</v>
       </c>
@@ -17039,7 +17063,7 @@
       </c>
     </row>
     <row r="13" spans="1:47" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="68">
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -17059,7 +17083,7 @@
       </c>
     </row>
     <row r="14" spans="1:47" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="11" t="s">
         <v>99</v>
       </c>
@@ -17077,7 +17101,7 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
@@ -17115,7 +17139,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82">
+      <c r="A17" s="84">
         <v>4</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -17135,7 +17159,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="11" t="s">
         <v>104</v>
       </c>
@@ -17153,7 +17177,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="11" t="s">
         <v>103</v>
       </c>
@@ -17171,7 +17195,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="11" t="s">
         <v>108</v>
       </c>
@@ -17209,7 +17233,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82">
+      <c r="A22" s="84">
         <v>5</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -17229,7 +17253,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="11" t="s">
         <v>106</v>
       </c>
@@ -17247,7 +17271,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="11" t="s">
         <v>107</v>
       </c>
@@ -17265,7 +17289,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="11" t="s">
         <v>109</v>
       </c>
@@ -17283,7 +17307,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="11" t="s">
         <v>110</v>
       </c>
@@ -17301,7 +17325,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="11" t="s">
         <v>133</v>
       </c>
@@ -17319,7 +17343,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="11" t="s">
         <v>134</v>
       </c>
@@ -17357,7 +17381,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71">
+      <c r="A30" s="68">
         <v>6</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -17377,7 +17401,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="11" t="s">
         <v>120</v>
       </c>
@@ -17395,7 +17419,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="11" t="s">
         <v>113</v>
       </c>
@@ -17413,7 +17437,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="11" t="s">
         <v>23</v>
       </c>
@@ -17431,7 +17455,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="11" t="s">
         <v>127</v>
       </c>
@@ -17449,7 +17473,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="11" t="s">
         <v>130</v>
       </c>
@@ -17487,7 +17511,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="82">
+      <c r="A37" s="84">
         <v>7</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -17507,7 +17531,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -17525,7 +17549,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="11" t="s">
         <v>131</v>
       </c>
@@ -17543,7 +17567,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="11" t="s">
         <v>132</v>
       </c>
@@ -17561,7 +17585,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="11" t="s">
         <v>116</v>
       </c>
@@ -17599,7 +17623,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+      <c r="A43" s="68">
         <v>8</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -17619,7 +17643,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="11" t="s">
         <v>118</v>
       </c>
@@ -17637,7 +17661,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="11" t="s">
         <v>119</v>
       </c>
@@ -17658,58 +17682,58 @@
       <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="98"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="96"/>
     </row>
     <row r="48" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="101"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="99"/>
     </row>
     <row r="49" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="101"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="99"/>
     </row>
     <row r="50" spans="1:11" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="104"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="102"/>
     </row>
     <row r="51" spans="1:11" s="3" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
@@ -19841,6 +19865,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATb/5D/nSyYLHad3QR2wBkD2IuP/vhCyxjhQRk5CqFExUMRFPaD6v0ct5gHhNV/MKDJfYoYWlDE2f7yfEK4PlA==" saltValue="fujVjPZWQmrZQ8R70egwSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A28"/>
     <mergeCell ref="A47:K50"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:J2"/>
@@ -19848,13 +19879,6 @@
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A28"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
